--- a/Stocks/DALMIABHA.xlsx
+++ b/Stocks/DALMIABHA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>2183.6333333333332</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>2625.5084704934479</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>2599.6772698212335</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>45.081435152112441</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>52.550000000000182</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>75.5</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.69602649006622752</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>2610.7833355096914</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>24.828555915589277</v>
       </c>
       <c r="Y67">
         <v>38.624718130801348</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>2627.7</v>
+      </c>
+      <c r="D83">
+        <v>2685</v>
+      </c>
+      <c r="E83">
+        <v>2605.25</v>
+      </c>
+      <c r="F83">
+        <v>2670.1</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>2653.4500000000003</v>
+      </c>
+      <c r="H83">
+        <v>2628.9127429983091</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>2641.6600228777374</v>
+      </c>
+      <c r="K83">
+        <v>2567.7377537296943</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>72.816213782948196</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>64.849999999999909</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>79.75</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.81316614420062583</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>2597.8471855036792</v>
+      </c>
+      <c r="W83">
+        <v>2593.9738824951251</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>3.8733030085541031</v>
+      </c>
+      <c r="Y83">
+        <v>-1.9654913541631935</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>2670</v>
+      </c>
+      <c r="D84">
+        <v>2702.5</v>
+      </c>
+      <c r="E84">
+        <v>2653</v>
+      </c>
+      <c r="F84">
+        <v>2689.95</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>2681.8166666666666</v>
+      </c>
+      <c r="H84">
+        <v>2655.3647048324879</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>2655.1800177937957</v>
+      </c>
+      <c r="K84">
+        <v>2586.68491956754</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N84">
+        <v>75.980246140943947</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>36.949999999999818</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>49.5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.74646464646464283</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>2612.0168492723437</v>
+      </c>
+      <c r="W84">
+        <v>2601.0832245325232</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>10.933624739820516</v>
+      </c>
+      <c r="Y84">
+        <v>0.61433186463354827</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>2684</v>
+      </c>
+      <c r="D85">
+        <v>2731.35</v>
+      </c>
+      <c r="E85">
+        <v>2681</v>
+      </c>
+      <c r="F85">
+        <v>2692</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>2701.4500000000003</v>
+      </c>
+      <c r="H85">
+        <v>2678.4073524162441</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>2672.1066805062856</v>
+      </c>
+      <c r="K85">
+        <v>2607.6438263303089</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>76.335816747803975</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>50.349999999999909</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.21847070506454855</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>2624.3219493842907</v>
+      </c>
+      <c r="W85">
+        <v>2607.8178004930769</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>16.504148891213845</v>
+      </c>
+      <c r="Y85">
+        <v>3.7922952699496077</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>2720</v>
+      </c>
+      <c r="D86">
+        <v>2740</v>
+      </c>
+      <c r="E86">
+        <v>2679.95</v>
+      </c>
+      <c r="F86">
+        <v>2735</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>2718.3166666666666</v>
+      </c>
+      <c r="H86">
+        <v>2698.3620095414553</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>2687.1940848382219</v>
+      </c>
+      <c r="K86">
+        <v>2623.7118649235736</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>82.952524825863307</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>55.050000000000182</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>60.050000000000182</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.91673605328892616</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>2641.3493417867076</v>
+      </c>
+      <c r="W86">
+        <v>2617.2387041602565</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>24.11063762645108</v>
+      </c>
+      <c r="Y86">
+        <v>7.8559637412499024</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD86">
+        <f t="shared" si="35"/>
+        <v>2686.8</v>
+      </c>
+      <c r="AE86">
+        <f t="shared" si="36"/>
+        <v>2702.9</v>
+      </c>
+      <c r="AF86">
+        <f t="shared" si="37"/>
+        <v>2709.9500000000003</v>
+      </c>
+      <c r="AG86">
+        <f t="shared" si="38"/>
+        <v>2717.05</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>2735</v>
+      </c>
+      <c r="D87">
+        <v>2737.75</v>
+      </c>
+      <c r="E87">
+        <v>2675.05</v>
+      </c>
+      <c r="F87">
+        <v>2689.9</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>2700.9</v>
+      </c>
+      <c r="H87">
+        <v>2699.6310047707275</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J87">
+        <v>2698.4287326519502</v>
+      </c>
+      <c r="K87">
+        <v>2635.1203393850019</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>60.700826686793889</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>14.849999999999909</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>62.699999999999818</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.23684210526315713</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>2648.8186738195218</v>
+      </c>
+      <c r="W87">
+        <v>2622.621022370608</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>26.197651448913803</v>
+      </c>
+      <c r="Y87">
+        <v>11.524301282782684</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>2697.5</v>
+      </c>
+      <c r="D88">
+        <v>2732.6</v>
+      </c>
+      <c r="E88">
+        <v>2669.25</v>
+      </c>
+      <c r="F88">
+        <v>2725</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>2708.9500000000003</v>
+      </c>
+      <c r="H88">
+        <v>2704.2905023853637</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>2706.0223476181836</v>
+      </c>
+      <c r="K88">
+        <v>2642.704708410557</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>68.83392837930505</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>55.75</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>63.349999999999909</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.8800315706393067</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V88">
+        <v>2660.5388778472875</v>
+      </c>
+      <c r="W88">
+        <v>2630.2046503431557</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>30.334227504131832</v>
+      </c>
+      <c r="Y88">
+        <v>15.286286527052514</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>2723.3</v>
+      </c>
+      <c r="D89">
+        <v>2778.95</v>
+      </c>
+      <c r="E89">
+        <v>2696.35</v>
+      </c>
+      <c r="F89">
+        <v>2753.05</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>2742.7833333333328</v>
+      </c>
+      <c r="H89">
+        <v>2723.5369178593483</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>2722.2284925919207</v>
+      </c>
+      <c r="K89">
+        <v>2654.6258843193223</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>74.17317080533077</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>56.700000000000273</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>82.599999999999909</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.68644067796610575</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>2674.7713581784742</v>
+      </c>
+      <c r="W89">
+        <v>2639.3043058732924</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>35.467052305181824</v>
+      </c>
+      <c r="Y89">
+        <v>19.322439682678375</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>2746.1</v>
+      </c>
+      <c r="D90">
+        <v>2768.35</v>
+      </c>
+      <c r="E90">
+        <v>2716.5</v>
+      </c>
+      <c r="F90">
+        <v>2728</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>2737.6166666666668</v>
+      </c>
+      <c r="H90">
+        <v>2730.5767922630075</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>2732.4777164603829</v>
+      </c>
+      <c r="K90">
+        <v>2668.3756878039171</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>62.265428334958571</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>11.5</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>51.849999999999909</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.22179363548698205</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>2682.9603799971705</v>
+      </c>
+      <c r="W90">
+        <v>2645.8743572900858</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>37.086022707084794</v>
+      </c>
+      <c r="Y90">
+        <v>22.875156287559658</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>2740</v>
+      </c>
+      <c r="D91">
+        <v>2755</v>
+      </c>
+      <c r="E91">
+        <v>2711</v>
+      </c>
+      <c r="F91">
+        <v>2724</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>2730</v>
+      </c>
+      <c r="H91">
+        <v>2730.2883961315038</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>2737.4826683580754</v>
+      </c>
+      <c r="K91">
+        <v>2677.8477571808244</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>60.332153102153207</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>13</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>44</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.29545454545454547</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>2689.2741676899136</v>
+      </c>
+      <c r="W91">
+        <v>2651.6614419352645</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>37.612725754649091</v>
+      </c>
+      <c r="Y91">
+        <v>25.822670180977546</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>2733.5</v>
+      </c>
+      <c r="D92">
+        <v>2748.5</v>
+      </c>
+      <c r="E92">
+        <v>2691.8</v>
+      </c>
+      <c r="F92">
+        <v>2700</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>2713.4333333333334</v>
+      </c>
+      <c r="H92">
+        <v>2721.8608647324186</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>2739.9309642785033</v>
+      </c>
+      <c r="K92">
+        <v>2680.9482555850855</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>48.936464773471798</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>8.1999999999998181</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>56.699999999999818</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.1446208112874752</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>2690.9242957376191</v>
+      </c>
+      <c r="W92">
+        <v>2655.2420758659855</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>35.682219871633606</v>
+      </c>
+      <c r="Y92">
+        <v>27.794580119108758</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>2721.9</v>
+      </c>
+      <c r="D93">
+        <v>2763</v>
+      </c>
+      <c r="E93">
+        <v>2695.75</v>
+      </c>
+      <c r="F93">
+        <v>2750</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>2736.25</v>
+      </c>
+      <c r="H93">
+        <v>2729.0554323662091</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>2745.0574166610581</v>
+      </c>
+      <c r="K93">
+        <v>2684.2375321217332</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>65.772392613657857</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>54.25</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>67.25</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.80669144981412644</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>2700.0128656241391</v>
+      </c>
+      <c r="W93">
+        <v>2662.261181357394</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>37.751684266745087</v>
+      </c>
+      <c r="Y93">
+        <v>29.786000948636023</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>2760</v>
+      </c>
+      <c r="D94">
+        <v>2816.2</v>
+      </c>
+      <c r="E94">
+        <v>2735.05</v>
+      </c>
+      <c r="F94">
+        <v>2796.5</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>2782.5833333333335</v>
+      </c>
+      <c r="H94">
+        <v>2755.8193828497715</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>2760.8668796252673</v>
+      </c>
+      <c r="K94">
+        <v>2695.529191650237</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>75.256244366241745</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>61.449999999999818</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>81.149999999999636</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.75723967960566962</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>2714.8570401435022</v>
+      </c>
+      <c r="W94">
+        <v>2672.2047975531427</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>42.652242590359492</v>
+      </c>
+      <c r="Y94">
+        <v>32.359249276980719</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>2813</v>
+      </c>
+      <c r="D95">
+        <v>2848.8</v>
+      </c>
+      <c r="E95">
+        <v>2766.5</v>
+      </c>
+      <c r="F95">
+        <v>2789</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>2801.4333333333329</v>
+      </c>
+      <c r="H95">
+        <v>2778.626358091552</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>2780.4075730418745</v>
+      </c>
+      <c r="K95">
+        <v>2711.3004823946289</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>71.27460989702513</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>22.5</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>82.300000000000182</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.27339003645200427</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>2726.2636493521941</v>
+      </c>
+      <c r="W95">
+        <v>2680.8562940306879</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>45.407355321506202</v>
+      </c>
+      <c r="Y95">
+        <v>34.968870485885816</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>2790</v>
+      </c>
+      <c r="D96">
+        <v>2808.9</v>
+      </c>
+      <c r="E96">
+        <v>2771.75</v>
+      </c>
+      <c r="F96">
+        <v>2798</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>2792.8833333333332</v>
+      </c>
+      <c r="H96">
+        <v>2785.7548457124426</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>2786.7392234770136</v>
+      </c>
+      <c r="K96">
+        <v>2724.733708529156</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>73.386683749787224</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>26.25</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>37.150000000000091</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.70659488559892158</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>2737.3000109903182</v>
+      </c>
+      <c r="W96">
+        <v>2689.5336055839703</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>47.766405406347985</v>
+      </c>
+      <c r="Y96">
+        <v>37.528377469978253</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>2789.8</v>
+      </c>
+      <c r="D97">
+        <v>2835</v>
+      </c>
+      <c r="E97">
+        <v>2763.55</v>
+      </c>
+      <c r="F97">
+        <v>2815</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>2804.5166666666664</v>
+      </c>
+      <c r="H97">
+        <v>2795.1357561895547</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>2797.4638404821217</v>
+      </c>
+      <c r="K97">
+        <v>2733.3595510782325</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>77.323426386381385</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>51.449999999999818</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>71.449999999999818</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.72008397480755704</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>2749.2538554533462</v>
+      </c>
+      <c r="W97">
+        <v>2698.8274125777502</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>50.426442875595967</v>
+      </c>
+      <c r="Y97">
+        <v>40.107990551101793</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>2826.85</v>
+      </c>
+      <c r="D98">
+        <v>2849.7</v>
+      </c>
+      <c r="E98">
+        <v>2800</v>
+      </c>
+      <c r="F98">
+        <v>2814</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>2821.2333333333336</v>
+      </c>
+      <c r="H98">
+        <v>2808.1845447614442</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>2809.0718759305391</v>
+      </c>
+      <c r="K98">
+        <v>2748.1685397275141</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>76.491448077897758</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>49.699999999999818</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.28169014084507144</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>2759.2148007682158</v>
+      </c>
+      <c r="W98">
+        <v>2707.3587153497688</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>51.856085418447037</v>
+      </c>
+      <c r="Y98">
+        <v>42.457609524570842</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>2815.55</v>
+      </c>
+      <c r="D99">
+        <v>2823.65</v>
+      </c>
+      <c r="E99">
+        <v>2788.45</v>
+      </c>
+      <c r="F99">
+        <v>2805.9</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>2806</v>
+      </c>
+      <c r="H99">
+        <v>2807.0922723807221</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>2812.3114590570858</v>
+      </c>
+      <c r="K99">
+        <v>2757.1199753436222</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>68.976950715243973</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>17.450000000000273</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>35.200000000000273</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.49573863636364029</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>2766.3971391115674</v>
+      </c>
+      <c r="W99">
+        <v>2714.6580697683044</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>51.739069343263054</v>
+      </c>
+      <c r="Y99">
+        <v>44.313901488309284</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>2800</v>
+      </c>
+      <c r="D100">
+        <v>2818.15</v>
+      </c>
+      <c r="E100">
+        <v>2751.95</v>
+      </c>
+      <c r="F100">
+        <v>2766</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>2778.7000000000003</v>
+      </c>
+      <c r="H100">
+        <v>2792.8961361903612</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>2813.6089125999556</v>
+      </c>
+      <c r="K100">
+        <v>2755.9710919339282</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>42.978920409766289</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>14.050000000000182</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>66.200000000000273</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.21223564954682966</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>2766.3360407867108</v>
+      </c>
+      <c r="W100">
+        <v>2718.461175711393</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>47.874865075317757</v>
+      </c>
+      <c r="Y100">
+        <v>45.026094205710976</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>2779.95</v>
+      </c>
+      <c r="D101">
+        <v>2791.95</v>
+      </c>
+      <c r="E101">
+        <v>2722.2</v>
+      </c>
+      <c r="F101">
+        <v>2777.8</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>2763.9833333333336</v>
+      </c>
+      <c r="H101">
+        <v>2778.4397347618474</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>2808.7958209110766</v>
+      </c>
+      <c r="K101">
+        <v>2748.4664048374998</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>49.952249212440528</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>55.600000000000364</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>69.75</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.79713261648746037</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>2768.0997268195247</v>
+      </c>
+      <c r="W101">
+        <v>2722.8566441772159</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>45.243082642308764</v>
+      </c>
+      <c r="Y101">
+        <v>45.069491893030531</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>2760</v>
+      </c>
+      <c r="D102">
+        <v>2791</v>
+      </c>
+      <c r="E102">
+        <v>2663</v>
+      </c>
+      <c r="F102">
+        <v>2670</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>2708</v>
+      </c>
+      <c r="H102">
+        <v>2743.2198673809235</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>2804.8411940419483</v>
+      </c>
+      <c r="K102">
+        <v>2729.4738704291667</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>20.843539813633967</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>128</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>5.46875E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>2753.0074611549826</v>
+      </c>
+      <c r="W102">
+        <v>2718.9413372011259</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>34.066123953856732</v>
+      </c>
+      <c r="Y102">
+        <v>42.868818305195774</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>2625</v>
+      </c>
+      <c r="D103">
+        <v>2715</v>
+      </c>
+      <c r="E103">
+        <v>2579.3000000000002</v>
+      </c>
+      <c r="F103">
+        <v>2675</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>2656.4333333333334</v>
+      </c>
+      <c r="H103">
+        <v>2699.8266003571284</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>2784.8764842548485</v>
+      </c>
+      <c r="K103">
+        <v>2696.1018992226855</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>23.430472486847016</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>95.699999999999818</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>135.69999999999982</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.70523212969786253</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>2741.0063132849855</v>
+      </c>
+      <c r="W103">
+        <v>2715.6864233343758</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>25.31988995060965</v>
+      </c>
+      <c r="Y103">
+        <v>39.359032634278549</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>2630.5</v>
+      </c>
+      <c r="D104">
+        <v>2645.2</v>
+      </c>
+      <c r="E104">
+        <v>2585</v>
+      </c>
+      <c r="F104">
+        <v>2595</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>2608.4</v>
+      </c>
+      <c r="H104">
+        <v>2654.1133001785643</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>2753.8372655315488</v>
+      </c>
+      <c r="K104">
+        <v>2671.4125882843109</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>14.169155828865939</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>60.199999999999818</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.16611295681063173</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>2718.5438035488337</v>
+      </c>
+      <c r="W104">
+        <v>2706.7466882725703</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>11.797115276263412</v>
+      </c>
+      <c r="Y104">
+        <v>33.846649162675519</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="35"/>
+        <v>2638.3500000000004</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="36"/>
+        <v>2622.2000000000003</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="37"/>
+        <v>2615.1000000000004</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="38"/>
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>2620</v>
+      </c>
+      <c r="D105">
+        <v>2620</v>
+      </c>
+      <c r="E105">
+        <v>2570</v>
+      </c>
+      <c r="F105">
+        <v>2600</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>2596.6666666666665</v>
+      </c>
+      <c r="H105">
+        <v>2625.3899834226154</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>2724.0956509689822</v>
+      </c>
+      <c r="K105">
+        <v>2648.8764575544642</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>16.740243316877407</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>50</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.6</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>2700.3062953105514</v>
+      </c>
+      <c r="W105">
+        <v>2698.8395261783057</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>1.4667691322456449</v>
+      </c>
+      <c r="Y105">
+        <v>27.370673156589543</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>2599.8000000000002</v>
+      </c>
+      <c r="D106">
+        <v>2600</v>
+      </c>
+      <c r="E106">
+        <v>2505.5500000000002</v>
+      </c>
+      <c r="F106">
+        <v>2540.0500000000002</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>2548.5333333333333</v>
+      </c>
+      <c r="H106">
+        <v>2586.9616583779743</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>2696.5188396425419</v>
+      </c>
+      <c r="K106">
+        <v>2617.0261336534722</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>11.55332295050696</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>34.5</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>94.449999999999818</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.36527263102170532</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>2675.6514806473897</v>
+      </c>
+      <c r="W106">
+        <v>2687.0773390539866</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-11.425858406596944</v>
+      </c>
+      <c r="Y106">
+        <v>19.611366843952243</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>2550.6999999999998</v>
+      </c>
+      <c r="D107">
+        <v>2595</v>
+      </c>
+      <c r="E107">
+        <v>2545.5</v>
+      </c>
+      <c r="F107">
+        <v>2550.1</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>2563.5333333333333</v>
+      </c>
+      <c r="H107">
+        <v>2575.2474958556541</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>2673.959097499755</v>
+      </c>
+      <c r="K107">
+        <v>2601.1314372860338</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>16.945893226093009</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>4.5999999999999091</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>49.5</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>9.2929292929291085E-2</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V107">
+        <v>2656.335868240099</v>
+      </c>
+      <c r="W107">
+        <v>2676.930869494432</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-20.595001254333056</v>
+      </c>
+      <c r="Y107">
+        <v>11.570093224295183</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="35"/>
+        <v>2589.3500000000004</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="36"/>
+        <v>2576.1000000000004</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="37"/>
+        <v>2570.25</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="38"/>
+        <v>2564.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
